--- a/C4 AI Furnace Model Input Pre-Processing.xlsx
+++ b/C4 AI Furnace Model Input Pre-Processing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarini2\Desktop\NSG Pilkigton\NSG_v2\Furnace_AI_C4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarini2\Desktop\NSG Pilkigton\test_git\test-repo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810A17F6-D711-400F-A236-BCA9733E0BDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45CB883-7CB1-4EED-86C6-476D73502A71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{F714B3DC-A380-4AD8-B487-43D70EFBA3FB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="6640" activeTab="1" xr2:uid="{F714B3DC-A380-4AD8-B487-43D70EFBA3FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisions" sheetId="16" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="902">
   <si>
     <t>Tag</t>
   </si>
@@ -3350,9 +3350,9 @@
   <dimension ref="A1:T155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="N38" sqref="N38"/>
+      <selection pane="bottomLeft" activeCell="N131" sqref="N131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10755,7 +10755,7 @@
         <v>100</v>
       </c>
       <c r="N128" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O128" s="26">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>100</v>
       </c>
       <c r="N131" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O131" s="26">
         <v>0</v>
@@ -22586,6 +22586,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocIdPersistId xmlns="f9012d67-404f-4110-adf2-371a80a60da3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="f9012d67-404f-4110-adf2-371a80a60da3">JNFSJMKFRAC3-1958712506-148</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="f9012d67-404f-4110-adf2-371a80a60da3">
+      <Url>http://projects.mynsg.net/sites/NDP/R-DV01-J002/_layouts/DocIdRedir.aspx?ID=JNFSJMKFRAC3-1958712506-148</Url>
+      <Description>JNFSJMKFRAC3-1958712506-148</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Blank Document" ma:contentTypeID="0x010100D96F54A3CA6C0A4CBF53A5762687314A010031C63083E320924F961F301FDED1EE531A006E61B0C2C812444C893B6A26FF064158" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="bbd4ef03a5415f3fa0e89401e506d48c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9012d67-404f-4110-adf2-371a80a60da3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7d923b49aa21a41211db3abba80f014" ns2:_="">
     <xsd:import namespace="f9012d67-404f-4110-adf2-371a80a60da3"/>
@@ -22730,26 +22743,9 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocIdPersistId xmlns="f9012d67-404f-4110-adf2-371a80a60da3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="f9012d67-404f-4110-adf2-371a80a60da3">JNFSJMKFRAC3-1958712506-148</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="f9012d67-404f-4110-adf2-371a80a60da3">
-      <Url>http://projects.mynsg.net/sites/NDP/R-DV01-J002/_layouts/DocIdRedir.aspx?ID=JNFSJMKFRAC3-1958712506-148</Url>
-      <Description>JNFSJMKFRAC3-1958712506-148</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="0e491577-2090-448c-b4ad-1068f0b347a3" ContentTypeId="0x010100D96F54A3CA6C0A4CBF53A5762687314A01" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22800,10 +22796,30 @@
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="0e491577-2090-448c-b4ad-1068f0b347a3" ContentTypeId="0x010100D96F54A3CA6C0A4CBF53A5762687314A01" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6831FC64-49B3-4825-B086-746B9DA1F585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f9012d67-404f-4110-adf2-371a80a60da3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C77FB779-49CF-424E-A0A7-A78685F5875E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22821,26 +22837,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6831FC64-49B3-4825-B086-746B9DA1F585}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{330281AA-DD2E-4401-91E1-CAC713FAFFE1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f9012d67-404f-4110-adf2-371a80a60da3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57751DD7-644C-48E8-ADA8-44164F6137EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22854,9 +22854,9 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{330281AA-DD2E-4401-91E1-CAC713FAFFE1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57751DD7-644C-48E8-ADA8-44164F6137EC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/C4 AI Furnace Model Input Pre-Processing.xlsx
+++ b/C4 AI Furnace Model Input Pre-Processing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarini2\Desktop\NSG Pilkigton\NSG_v2\Furnace_AI_C4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarini2\Desktop\NSG Pilkigton\test_git\test-repo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810A17F6-D711-400F-A236-BCA9733E0BDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AB8010-C28A-43E2-8556-D38A692BF030}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{F714B3DC-A380-4AD8-B487-43D70EFBA3FB}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="902">
   <si>
     <t>Tag</t>
   </si>
@@ -22586,6 +22586,79 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="0e491577-2090-448c-b4ad-1068f0b347a3" ContentTypeId="0x010100D96F54A3CA6C0A4CBF53A5762687314A01" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocIdPersistId xmlns="f9012d67-404f-4110-adf2-371a80a60da3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="f9012d67-404f-4110-adf2-371a80a60da3">JNFSJMKFRAC3-1958712506-148</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="f9012d67-404f-4110-adf2-371a80a60da3">
+      <Url>http://projects.mynsg.net/sites/NDP/R-DV01-J002/_layouts/DocIdRedir.aspx?ID=JNFSJMKFRAC3-1958712506-148</Url>
+      <Description>JNFSJMKFRAC3-1958712506-148</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Blank Document" ma:contentTypeID="0x010100D96F54A3CA6C0A4CBF53A5762687314A010031C63083E320924F961F301FDED1EE531A006E61B0C2C812444C893B6A26FF064158" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="bbd4ef03a5415f3fa0e89401e506d48c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9012d67-404f-4110-adf2-371a80a60da3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7d923b49aa21a41211db3abba80f014" ns2:_="">
     <xsd:import namespace="f9012d67-404f-4110-adf2-371a80a60da3"/>
@@ -22730,80 +22803,47 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocIdPersistId xmlns="f9012d67-404f-4110-adf2-371a80a60da3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="f9012d67-404f-4110-adf2-371a80a60da3">JNFSJMKFRAC3-1958712506-148</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="f9012d67-404f-4110-adf2-371a80a60da3">
-      <Url>http://projects.mynsg.net/sites/NDP/R-DV01-J002/_layouts/DocIdRedir.aspx?ID=JNFSJMKFRAC3-1958712506-148</Url>
-      <Description>JNFSJMKFRAC3-1958712506-148</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{330281AA-DD2E-4401-91E1-CAC713FAFFE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2789E6C-C55E-446B-8536-A0D3F04D6FCE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57751DD7-644C-48E8-ADA8-44164F6137EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="0e491577-2090-448c-b4ad-1068f0b347a3" ContentTypeId="0x010100D96F54A3CA6C0A4CBF53A5762687314A01" PreviousValue="false"/>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6831FC64-49B3-4825-B086-746B9DA1F585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f9012d67-404f-4110-adf2-371a80a60da3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C77FB779-49CF-424E-A0A7-A78685F5875E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22819,44 +22859,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6831FC64-49B3-4825-B086-746B9DA1F585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f9012d67-404f-4110-adf2-371a80a60da3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57751DD7-644C-48E8-ADA8-44164F6137EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2789E6C-C55E-446B-8536-A0D3F04D6FCE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{330281AA-DD2E-4401-91E1-CAC713FAFFE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>